--- a/BancoDados/Normalização.xlsx
+++ b/BancoDados/Normalização.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disrct\Desktop\Moviefy_Tickets\BancoDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842DB9A3-425E-4829-984B-ECA0B8A425A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5610175E-DB7C-4EC9-AA98-212F3D241937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{370FBAE2-C8D1-4B9D-AC48-9BF32C45CE15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="12" xr2:uid="{370FBAE2-C8D1-4B9D-AC48-9BF32C45CE15}"/>
   </bookViews>
   <sheets>
     <sheet name="Genero" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="150">
   <si>
     <t>Atributo</t>
   </si>
@@ -667,14 +667,1706 @@
     <t>CPF do cliente</t>
   </si>
   <si>
-    <t>Pagamento(id,  Tipo)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cliente(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nome, Sobrenome, Senha, Email, CPF, DataNascimento)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1 NF: Cliente(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Nome, Sobrenome, Senha, Email, CPF, DataNascimento)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2 NF: Cliente(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Nome, Sobrenome, Senha, Email, CPF, DataNascimento)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 NF: Cliente(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Nome, Sobrenome, Senha, Email, CPF, DataNascimento)</t>
+    </r>
+  </si>
+  <si>
+    <t>Endereco</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>Logradouro</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Numero do local</t>
+  </si>
+  <si>
+    <t>CEP do cinema</t>
+  </si>
+  <si>
+    <t>Logradouro do cinema</t>
+  </si>
+  <si>
+    <t>Cidade onde fica o cinema</t>
+  </si>
+  <si>
+    <r>
+      <t>Endereco(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numero, cep, logradouro, cidade)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1 NF: Endereco(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numero, cep, logradouro, cidade)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2 NF: Endereco(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numero, cep, logradouro, cidade)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 NF: Endereco(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numero, cep, logradouro, cidade)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>PrecoIngresso</t>
+  </si>
+  <si>
+    <r>
+      <t>Cinema(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nome, precoIngresso, endereco)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1 NF: Cinema(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nome, precoIngresso, endereco), Endereco(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numero, cep, logradouro, cidade)</t>
+    </r>
+  </si>
+  <si>
+    <t>2 NF: Cinema(id, nome, precoIngresso, endereco), Endereco(id, numero, cep, logradouro, cidade)</t>
+  </si>
+  <si>
+    <t>3 NF: Cinema(id, nome, precoIngresso, endereco), Endereco(id, numero, cep, logradouro, cidade)</t>
+  </si>
+  <si>
+    <t>Filme</t>
+  </si>
+  <si>
+    <t>Nome do estabelecimento onde o cinema fica</t>
+  </si>
+  <si>
+    <t>Preço do ingresso 100% do cinema</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>DataEstreia</t>
+  </si>
+  <si>
+    <t>DataSaida</t>
+  </si>
+  <si>
+    <t>Composto</t>
+  </si>
+  <si>
+    <t>Enderco do local - numero, cep, logradouro, cidade</t>
+  </si>
+  <si>
+    <t>Duracao</t>
+  </si>
+  <si>
+    <t>IDGenero</t>
+  </si>
+  <si>
+    <t>IDClassificacao</t>
+  </si>
+  <si>
+    <t>Chave estrangeira</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>numerico</t>
+  </si>
+  <si>
+    <t>Título do filme</t>
+  </si>
+  <si>
+    <t>Data que o filme será lançado</t>
+  </si>
+  <si>
+    <t>Data que o filme saíra do cinema</t>
+  </si>
+  <si>
+    <t>Duração em minutos do filme</t>
+  </si>
+  <si>
+    <t>Qual o genero do filme</t>
+  </si>
+  <si>
+    <t>Classificação indicativa do filme</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filme(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, titulo, dataEstreia, dataSaida, duracao, Genero, Classificacao)</t>
+    </r>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <r>
+      <t>1 NF: Filme(id, titulo, dataEstreia, dataSaida, duracao, Genero, Classificacao), Genero(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nome), ClassificacaoIndicativa(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Idade) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2 NF: Filme(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, titulo, dataEstreia, dataSaida, duracao, Genero, Classificacao), Genero(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nome), ClassificacaoIndicativa(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Idade)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 NF: Filme(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, titulo, dataEstreia, dataSaida, duracao, Genero, Classificacao), Genero(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nome), ClassificacaoIndicativa(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Idade)</t>
+    </r>
+  </si>
+  <si>
+    <t>Assentos</t>
+  </si>
+  <si>
+    <t>IDSala</t>
+  </si>
+  <si>
+    <t>Localização do assento na sala</t>
+  </si>
+  <si>
+    <t>Sala do assento</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Assentos(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numero, sala)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1 NF: Assentos(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numero, sala), Salas(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numero)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2 NF: Assentos(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numero, sala), Salas(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> numero)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 NF: Assentos(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numero, sala), Salas(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numero)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sessao</t>
+  </si>
+  <si>
+    <t>TresD</t>
+  </si>
+  <si>
+    <t>DataHorario</t>
+  </si>
+  <si>
+    <t>IDFilme</t>
+  </si>
+  <si>
+    <t>IDCinema</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Dimensão do filme</t>
+  </si>
+  <si>
+    <t>Data e horário da sessão</t>
+  </si>
+  <si>
+    <t>Qual filme será exibido</t>
+  </si>
+  <si>
+    <t>Qual estabelecimento ocorrerá</t>
+  </si>
+  <si>
+    <t>Qual a sala da sessão</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sessao(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, tresD, DataHorario, IDFilme, IDCinema, IDSala)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1 NF: Sessao(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, tresD, DataHorario, IDFilme, IDCinema, IDSala), Filme(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, titulo, dataEstreia, dataSaida, duracao, Genero, Classificacao), Cinema(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nome, precoIngresso, endereco), Salas(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  numero)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2 NF: Sessao(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, tresD, DataHorario, IDFilme, IDCinema, IDSala), Filme(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, titulo, dataEstreia, dataSaida, duracao, Genero, Classificacao), Cinema(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nome, precoIngresso, endereco), Salas(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  numero)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 NF:Sessao(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, tresD, DataHorario, IDFilme, IDCinema, IDSala), Filme(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, titulo, dataEstreia, dataSaida, duracao, Genero, Classificacao), Cinema(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nome, precoIngresso, endereco), Salas(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  numero)</t>
+    </r>
+  </si>
+  <si>
+    <t>IDCliente</t>
+  </si>
+  <si>
+    <t>IDPagamento</t>
+  </si>
+  <si>
+    <t>Cliente que realizou a compra</t>
+  </si>
+  <si>
+    <t>Método de pagamento feito</t>
+  </si>
+  <si>
+    <t>Compra</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compra(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, cliente, pagamento)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1 NF: Compra(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, cliente, pagamento), Pagamento(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  Tipo) , Cliente(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Nome, Sobrenome, Senha, Email, CPF, DataNascimento)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2 NF:  Compra(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, cliente, pagamento), Pagamento(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  Tipo) , Cliente(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Nome, Sobrenome, Senha, Email, CPF, DataNascimento)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 NF:  Compra(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, cliente, pagamento), Pagamento(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  Tipo) , Cliente(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Nome, Sobrenome, Senha, Email, CPF, DataNascimento)</t>
+    </r>
+  </si>
+  <si>
+    <t>NumeroCompra</t>
+  </si>
+  <si>
+    <t>o numero da compra</t>
+  </si>
+  <si>
+    <t>a sessão que o ingresso pertence</t>
+  </si>
+  <si>
+    <t>Tipo do ingresso(meia ou interia e 3d ou 2d)</t>
+  </si>
+  <si>
+    <t>Ingressos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ingressos(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numeroCompra, sessao, tipoIngresso)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1 NF: Ingressos(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numeroCompra, sessao, tipoIngresso), Compra(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, cliente, pagamento), Sessao(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, tresD, DataHorario, IDFilme, IDCinema, IDSala), TipoIngresso(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  Tipo, Porcentagem)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2 NF: Ingressos(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numeroCompra, sessao, tipoIngresso), Compra(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, cliente, pagamento), Sessao(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, tresD, DataHorario, IDFilme, IDCinema, IDSala), TipoIngresso(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  Tipo, Porcentagem)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 NF:  Ingressos(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numeroCompra, sessao, tipoIngresso), Compra(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, cliente, pagamento), Sessao(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, tresD, DataHorario, IDFilme, IDCinema, IDSala), TipoIngresso(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  Tipo, Porcentagem)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +2429,13 @@
     <font>
       <sz val="11"/>
       <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -833,7 +2532,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -846,6 +2545,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -875,16 +2581,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -896,7 +2596,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Ênfase1" xfId="2" builtinId="30"/>
@@ -1237,14 +2967,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1307,44 +3037,44 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -1369,50 +3099,720 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063B04B2-90B5-41F4-82E9-DD4FEBD6A6EA}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8E2AFD-ACD4-44D3-9AFA-03E5370C5332}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="2:7" s="26" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="2:7" s="30" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="2:7" s="30" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DBC796-66B9-4032-9491-CDC2D75D5E47}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="2:7" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="2:7" s="26" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="2:7" s="26" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5D537C-6EA2-4A5F-8D61-E25C7BA51DE2}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="54.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1432,14 +3832,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1502,44 +3902,44 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1558,7 +3958,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,14 +3971,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1661,44 +4061,44 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1718,7 +4118,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G9"/>
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,14 +4129,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1799,44 +4199,44 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1855,7 +4255,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G9"/>
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,14 +4268,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1938,44 +4338,44 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1993,8 +4393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADE6C24-A2B9-4860-B0AA-DD827A2E462B}">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,15 +4407,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="L2" s="22"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -2138,7 +4538,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2178,44 +4578,44 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
+      <c r="B14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2232,36 +4632,618 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C90C320-77DB-4DCF-835B-316770DA7506}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="53.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>255</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FE62CA-2A8A-4464-A93F-CBBECE1C6694}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>255</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>255</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9457F9B4-6BF7-4C4D-888E-7E34A9C5CF0A}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="52.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>